--- a/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1021,7 +1021,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1502,7 +1502,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1983,7 +1983,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Estudios-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>21184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13845</v>
+        <v>13309</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32275</v>
+        <v>32166</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04306128948240848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0281435411538895</v>
+        <v>0.02705316362088812</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06560809844313699</v>
+        <v>0.06538550440782069</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>470759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>459668</v>
+        <v>459777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>478098</v>
+        <v>478634</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9569387105175915</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9343919015568629</v>
+        <v>0.9346144955921791</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9718564588461105</v>
+        <v>0.9729468363791118</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>129046</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>107225</v>
+        <v>107137</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151030</v>
+        <v>150336</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08964343734075768</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07448552766183124</v>
+        <v>0.07442461007224614</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1049155024829627</v>
+        <v>0.1044333218476136</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>1310497</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1288513</v>
+        <v>1289207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1332318</v>
+        <v>1332406</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9103565626592424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8950844975170372</v>
+        <v>0.8955666781523864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9255144723381687</v>
+        <v>0.9255753899277538</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>60949</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48388</v>
+        <v>47560</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76104</v>
+        <v>78077</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1429486437933698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1134876687625613</v>
+        <v>0.1115475612323081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1784947055899218</v>
+        <v>0.1831214212071511</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>365419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>350264</v>
+        <v>348291</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>377980</v>
+        <v>378808</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8570513562066302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8215052944100785</v>
+        <v>0.8168785787928491</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.886512331237439</v>
+        <v>0.8884524387676919</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>211178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>183296</v>
+        <v>185342</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>240131</v>
+        <v>239085</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08956365109376808</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0777385648503653</v>
+        <v>0.07860623264364419</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1018431405219808</v>
+        <v>0.1013995315425681</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>2146677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2117724</v>
+        <v>2118770</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2174559</v>
+        <v>2172513</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9104363489062319</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8981568594780192</v>
+        <v>0.8986004684574319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9222614351496348</v>
+        <v>0.9213937673563558</v>
       </c>
     </row>
     <row r="15">
@@ -1105,19 +1105,19 @@
         <v>31632</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22137</v>
+        <v>22294</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43946</v>
+        <v>43238</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06916014696727567</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04840092458944424</v>
+        <v>0.04874282656261043</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0960833042426722</v>
+        <v>0.09453581551855018</v>
       </c>
     </row>
     <row r="5">
@@ -1134,19 +1134,19 @@
         <v>425743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>413429</v>
+        <v>414137</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435238</v>
+        <v>435081</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9308398530327243</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9039166957573279</v>
+        <v>0.9054641844814498</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9515990754105558</v>
+        <v>0.9512571734373897</v>
       </c>
     </row>
     <row r="6">
@@ -1196,19 +1196,19 @@
         <v>159812</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>133382</v>
+        <v>135413</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>184015</v>
+        <v>184629</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1034209563119559</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08631717899559338</v>
+        <v>0.08763109825219337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1190834427501957</v>
+        <v>0.1194812245857703</v>
       </c>
     </row>
     <row r="8">
@@ -1225,19 +1225,19 @@
         <v>1385446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1361243</v>
+        <v>1360629</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1411876</v>
+        <v>1409845</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8965790436880441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8809165572498042</v>
+        <v>0.8805187754142296</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9136828210044066</v>
+        <v>0.9123689017478065</v>
       </c>
     </row>
     <row r="9">
@@ -1287,19 +1287,19 @@
         <v>41717</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30559</v>
+        <v>28983</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56995</v>
+        <v>56388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09854140452304859</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07218396477574836</v>
+        <v>0.06846117512932838</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1346290927147175</v>
+        <v>0.1331944123378148</v>
       </c>
     </row>
     <row r="11">
@@ -1316,19 +1316,19 @@
         <v>381632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>366354</v>
+        <v>366961</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>392790</v>
+        <v>394366</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9014585954769514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8653709072852821</v>
+        <v>0.866805587662185</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9278160352242514</v>
+        <v>0.9315388248706715</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>233161</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>204488</v>
+        <v>206627</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>264033</v>
+        <v>267660</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09611019097597669</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08429103727200034</v>
+        <v>0.08517243654607749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1088355690934989</v>
+        <v>0.1103304298612393</v>
       </c>
     </row>
     <row r="14">
@@ -1407,19 +1407,19 @@
         <v>2192820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2161948</v>
+        <v>2158321</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2221493</v>
+        <v>2219354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9038898090240233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.891164430906501</v>
+        <v>0.8896695701387607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9157089627279995</v>
+        <v>0.9148275634539226</v>
       </c>
     </row>
     <row r="15">
@@ -1586,19 +1586,19 @@
         <v>12168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7072</v>
+        <v>6618</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19685</v>
+        <v>20006</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04471704179980499</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02599030530991103</v>
+        <v>0.02432179121818706</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07234389609427309</v>
+        <v>0.07352254829088264</v>
       </c>
     </row>
     <row r="5">
@@ -1615,19 +1615,19 @@
         <v>259934</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>252417</v>
+        <v>252096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>265030</v>
+        <v>265484</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.955282958200195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9276561039057269</v>
+        <v>0.9264774517091173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9740096946900891</v>
+        <v>0.975678208781813</v>
       </c>
     </row>
     <row r="6">
@@ -1677,19 +1677,19 @@
         <v>103472</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86646</v>
+        <v>85411</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127578</v>
+        <v>122545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06588204037994309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05516831283061434</v>
+        <v>0.05438224002109805</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08123015200329897</v>
+        <v>0.07802582795331364</v>
       </c>
     </row>
     <row r="8">
@@ -1706,19 +1706,19 @@
         <v>1467100</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1442994</v>
+        <v>1448027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1483926</v>
+        <v>1485161</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9341179596200569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9187698479967011</v>
+        <v>0.9219741720466864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9448316871693858</v>
+        <v>0.9456177599789021</v>
       </c>
     </row>
     <row r="9">
@@ -1768,19 +1768,19 @@
         <v>33000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23622</v>
+        <v>23351</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45573</v>
+        <v>44943</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06876148870226055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04922180251773225</v>
+        <v>0.04865717028721992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09496031815697638</v>
+        <v>0.09364879885543664</v>
       </c>
     </row>
     <row r="11">
@@ -1797,19 +1797,19 @@
         <v>446914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>434341</v>
+        <v>434971</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>456292</v>
+        <v>456563</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9312385112977395</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9050396818430236</v>
+        <v>0.9063512011445636</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9507781974822678</v>
+        <v>0.9513428297127802</v>
       </c>
     </row>
     <row r="12">
@@ -1859,19 +1859,19 @@
         <v>148640</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125908</v>
+        <v>129220</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>171903</v>
+        <v>175653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0639974405748073</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05421026691164529</v>
+        <v>0.05563624859995011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0740137297228441</v>
+        <v>0.07562811200507338</v>
       </c>
     </row>
     <row r="14">
@@ -1888,19 +1888,19 @@
         <v>2173948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2150685</v>
+        <v>2146935</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2196680</v>
+        <v>2193368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9360025594251927</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9259862702771557</v>
+        <v>0.9243718879949265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9457897330883547</v>
+        <v>0.9443637514000498</v>
       </c>
     </row>
     <row r="15">
@@ -2067,19 +2067,19 @@
         <v>2422</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7475</v>
+        <v>6914</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01624005515717316</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00424950833132762</v>
+        <v>0.004274782203021086</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0501159700600678</v>
+        <v>0.04635279320256978</v>
       </c>
     </row>
     <row r="5">
@@ -2096,19 +2096,19 @@
         <v>146734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141681</v>
+        <v>142242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>148522</v>
+        <v>148518</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9837599448428268</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9498840299399323</v>
+        <v>0.9536472067974303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9957504916686724</v>
+        <v>0.9957252177969789</v>
       </c>
     </row>
     <row r="6">
@@ -2158,19 +2158,19 @@
         <v>41728</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29481</v>
+        <v>30140</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56323</v>
+        <v>56376</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02655656240939492</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01876232046627169</v>
+        <v>0.01918165068856244</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03584519246240628</v>
+        <v>0.03587889358627386</v>
       </c>
     </row>
     <row r="8">
@@ -2187,19 +2187,19 @@
         <v>1529560</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1514965</v>
+        <v>1514912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1541807</v>
+        <v>1541148</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.973443437590605</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9641548075375937</v>
+        <v>0.9641211064137262</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9812376795337283</v>
+        <v>0.9808183493114375</v>
       </c>
     </row>
     <row r="9">
@@ -2249,19 +2249,19 @@
         <v>21531</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12683</v>
+        <v>12453</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33868</v>
+        <v>32426</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03852760933998423</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0226940045548715</v>
+        <v>0.0222821977174667</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06060259549385825</v>
+        <v>0.05802175095129298</v>
       </c>
     </row>
     <row r="11">
@@ -2278,19 +2278,19 @@
         <v>537324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>524987</v>
+        <v>526429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>546172</v>
+        <v>546402</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9614723906600159</v>
+        <v>0.9614723906600158</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9393974045061425</v>
+        <v>0.9419782490487064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9773059954451285</v>
+        <v>0.9777178022825331</v>
       </c>
     </row>
     <row r="12">
@@ -2340,19 +2340,19 @@
         <v>65682</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51478</v>
+        <v>51184</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84992</v>
+        <v>82710</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02881660319924871</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02258502309472168</v>
+        <v>0.02245585338437339</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03728848053856659</v>
+        <v>0.03628731838101322</v>
       </c>
     </row>
     <row r="14">
@@ -2369,19 +2369,19 @@
         <v>2213618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2194308</v>
+        <v>2196590</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2227822</v>
+        <v>2228116</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9711833968007512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9627115194614332</v>
+        <v>0.9637126816189869</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9774149769052782</v>
+        <v>0.9775441466156265</v>
       </c>
     </row>
     <row r="15">
